--- a/Data/Data-orig.xlsx
+++ b/Data/Data-orig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annel\PycharmProjects\opetusTukiAutomaatio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\annel\PycharmProjects\opetusTukiAutomaatio\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2E2BA5-B38C-421E-A420-0A0B69C5626C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E234B210-9CBB-41DD-9A01-E856B0D9AF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="260" windowWidth="21600" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Tämä jää</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uusi </t>
+  </si>
+  <si>
+    <t>Testaa</t>
+  </si>
+  <si>
+    <t>UUSI PYTHON</t>
   </si>
 </sst>
 </file>
@@ -399,15 +408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,13 +427,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -429,13 +447,19 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -443,13 +467,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -457,13 +487,19 @@
         <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -471,13 +507,19 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="19.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="19.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -485,10 +527,16 @@
         <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
